--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{579B71D0-C49B-48F6-A57C-B69B11BF53EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{463F966E-204B-4F5E-85E9-359217E49899}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1275,6 +1275,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1284,7 +1293,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1419,6 +1428,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="5" applyAlignment="1">
@@ -1434,46 +1444,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1637,6 +1607,46 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1802,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.28985507246376813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.71014492753623193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,6 +2325,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3769,6 +3785,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4111,6 +4133,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4181,6 +4209,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4253,6 +4287,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4323,6 +4363,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -4961,10 +5007,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.28985507246376813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.71014492753623193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,6 +5526,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6943,6 +6995,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7495,6 +7553,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7565,6 +7629,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7637,6 +7707,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7707,6 +7783,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8304,10 +8386,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.28985507246376813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.71014492753623193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8817,6 +8899,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9261,6 +9349,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9611,6 +9705,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9681,6 +9781,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9753,6 +9859,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9823,6 +9935,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11244,6 +11362,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11373,6 +11494,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -13210,7 +13334,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="0">
                 <a:solidFill>
@@ -14568,7 +14692,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
@@ -15014,6 +15138,12 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15248,7 +15378,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan1 Progress</c:v>
+              <c:v>Sprint Titan2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15740,16 +15870,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15905,7 +16032,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Saturn Bugs by Priority</a:t>
+              <a:t>Titan Bugs by Priority</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -20077,6 +20204,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20419,6 +20552,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20489,6 +20628,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20561,6 +20706,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>286.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20631,6 +20782,12 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22134,10 +22291,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.28985507246376813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.71014492753623193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40944,7 +41101,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41322,7 +41479,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>11</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41585,7 +41742,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42261,7 +42418,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42768,7 +42925,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42785,7 +42942,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43578.444487037035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43606.320345949076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43014,12 +43171,6 @@
       <sharedItems containsBlank="1" count="49">
         <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]"/>
         <m/>
-        <s v="S1"/>
-        <s v="S2"/>
-        <s v="S3"/>
-        <s v="S4"/>
-        <s v="S5"/>
-        <s v="S6"/>
         <s v="T1"/>
         <s v="T2"/>
         <s v="T3"/>
@@ -43027,10 +43178,13 @@
         <s v="T5"/>
         <s v="T6"/>
         <s v="T7"/>
+        <s v="S2" u="1"/>
         <s v="Q10" u="1"/>
         <s v="Q11" u="1"/>
+        <s v="S4" u="1"/>
         <s v="R1" u="1"/>
         <s v="Q12" u="1"/>
+        <s v="S6" u="1"/>
         <s v="Q13" u="1"/>
         <s v="R3" u="1"/>
         <s v="Q14" u="1"/>
@@ -43046,6 +43200,9 @@
         <s v="Q8" u="1"/>
         <s v="P5" u="1"/>
         <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="S1" u="1"/>
+        <s v="S3" u="1"/>
+        <s v="S5" u="1"/>
         <s v="R2" u="1"/>
         <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;aturn&quot;, &quot;&quot;), &quot;ocket&quot;, &quot;&quot;)]" u="1"/>
         <s v="S7" u="1"/>
@@ -44595,7 +44752,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44644,7 +44801,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44693,7 +44850,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44742,7 +44899,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44791,7 +44948,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44840,7 +44997,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44889,7 +45046,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45086,7 +45243,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
@@ -45135,7 +45292,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="3"/>
     <x v="1"/>
@@ -45184,7 +45341,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="10"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="4"/>
     <x v="1"/>
@@ -45233,7 +45390,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="11"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="5"/>
     <x v="1"/>
@@ -45282,7 +45439,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="12"/>
+    <x v="6"/>
     <x v="2"/>
     <x v="6"/>
     <x v="1"/>
@@ -45331,7 +45488,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="7"/>
     <x v="2"/>
     <x v="5"/>
     <x v="1"/>
@@ -45380,7 +45537,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="14"/>
+    <x v="8"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
@@ -45527,7 +45684,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
@@ -46948,7 +47105,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
@@ -46997,7 +47154,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
@@ -47046,7 +47203,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="10"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
@@ -47095,7 +47252,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="11"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47144,7 +47301,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="12"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47193,7 +47350,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47242,7 +47399,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47291,7 +47448,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47340,7 +47497,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="10"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47389,7 +47546,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="11"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47438,7 +47595,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="12"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47487,7 +47644,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47536,7 +47693,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47585,7 +47742,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -47634,7 +47791,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48292,6 +48449,3307 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="46">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="33"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="42"/>
+        <item m="1" x="23"/>
+        <item m="1" x="44"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="31"/>
+        <item m="1" x="34"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="32"/>
+        <item m="1" x="35"/>
+        <item m="1" x="37"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="39" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -48635,21 +52093,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48661,12 +52119,27 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48697,84 +52170,91 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="3"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="4">
     <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48783,11 +52263,218 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="26">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -48805,7 +52492,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -49258,3557 +52945,27 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="46">
-        <item x="0"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="33"/>
-        <item m="1" x="24"/>
-        <item m="1" x="17"/>
-        <item m="1" x="11"/>
-        <item m="1" x="42"/>
-        <item m="1" x="23"/>
-        <item m="1" x="44"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="31"/>
-        <item m="1" x="34"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="40"/>
-        <item m="1" x="43"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="32"/>
-        <item m="1" x="35"/>
-        <item m="1" x="37"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="38" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="Z2:Z9" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -52837,10 +52994,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52858,7 +53015,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -54993,7 +55150,7 @@
         <v>269</v>
       </c>
       <c r="C6" s="20">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>188</v>
@@ -55015,6 +55172,9 @@
       <c r="K7" t="s">
         <v>269</v>
       </c>
+      <c r="L7">
+        <v>46.25</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -55065,7 +55225,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="20">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
         <v>274</v>
@@ -55083,7 +55243,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55133,7 +55293,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55147,7 +55307,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55195,7 +55355,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55218,16 +55378,14 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55236,7 +55394,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55245,7 +55403,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan1 Progress</v>
+        <v>Sprint Titan2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -55289,7 +55447,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -56651,7 +56809,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56675,7 +56833,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56699,7 +56857,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56723,7 +56881,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56747,7 +56905,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56771,7 +56929,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56792,7 +56950,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan1</v>
+        <v>Titan2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58588,7 +58746,7 @@
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
@@ -58633,22 +58791,22 @@
       <c r="P1" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78" t="s">
+      <c r="T1" s="79"/>
+      <c r="U1" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78" t="s">
+      <c r="V1" s="79"/>
+      <c r="W1" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="X1" s="78"/>
+      <c r="X1" s="79"/>
       <c r="AB1" s="16" t="s">
         <v>135</v>
       </c>
@@ -58662,7 +58820,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>0.28985507246376813</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58703,7 +58861,7 @@
       <c r="Q2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="64" t="s">
         <v>194</v>
       </c>
       <c r="S2" s="22" t="s">
@@ -58740,7 +58898,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>1</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -58755,53 +58913,45 @@
       <c r="L3" s="33">
         <v>0</v>
       </c>
-      <c r="M3" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+      <c r="M3" s="78">
+        <v>0.03</v>
       </c>
       <c r="N3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
         <v>420</v>
       </c>
-      <c r="R3" s="71">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+      <c r="R3" s="42">
+        <v>304</v>
       </c>
       <c r="S3" s="40">
         <f>$Q$26*(100%-K3)</f>
         <v>75</v>
       </c>
       <c r="T3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="U3" s="40">
         <f>$Q$27*(100%-L3)</f>
         <v>175</v>
       </c>
       <c r="V3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="W3" s="40">
         <f>$Q$28*(100%-K3)</f>
         <v>55</v>
       </c>
       <c r="X3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="32">
         <v>43605</v>
@@ -58840,30 +58990,46 @@
         <f>SUM($J$4:J4)/SUM($J$4:$J$10)</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="M4" s="70">
+        <v>0.11</v>
+      </c>
+      <c r="N4" s="76">
+        <v>0.19</v>
+      </c>
+      <c r="O4" s="76">
+        <v>0.11</v>
+      </c>
+      <c r="P4" s="76">
+        <v>0.22</v>
+      </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
         <v>358.23529411764707</v>
       </c>
-      <c r="R4" s="42"/>
+      <c r="R4" s="42">
+        <v>369</v>
+      </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
         <v>63.970588235294116</v>
       </c>
-      <c r="T4" s="42"/>
+      <c r="T4" s="42">
+        <v>59</v>
+      </c>
       <c r="U4" s="40">
         <f>$Q$27*(100%-L4)</f>
         <v>149.26470588235293</v>
       </c>
-      <c r="V4" s="42"/>
+      <c r="V4" s="42">
+        <v>169</v>
+      </c>
       <c r="W4" s="40">
         <f>$Q$28*(100%-K4)</f>
         <v>46.911764705882348</v>
       </c>
-      <c r="X4" s="42"/>
+      <c r="X4" s="42">
+        <v>40</v>
+      </c>
       <c r="Z4" s="32">
         <v>43647</v>
       </c>
@@ -58901,30 +59067,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$10)</f>
         <v>0.27941176470588236</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>302.64705882352939</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>54.044117647058826</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>126.10294117647059</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>39.632352941176471</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32"/>
       <c r="AB5" s="16" t="s">
         <v>140</v>
@@ -58950,7 +59140,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43578</v>
+        <v>43606</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59524,7 +59714,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>0.28985507246376813</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59533,7 +59723,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>1</v>
+        <v>0.71014492753623193</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60159,22 +60349,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
       <formula>$A$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
       <formula>$D$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>$G$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60247,49 +60437,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
     </row>
     <row r="2" spans="1:42" s="55" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
@@ -60403,132 +60593,116 @@
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>315</v>
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="H3" s="40">
-        <f t="shared" ref="H3" si="0">D3-I3</f>
-        <v>1550.125</v>
+        <f t="shared" ref="H3:H4" si="0">D3-I3</f>
+        <v>11</v>
       </c>
       <c r="I3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>304</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3" si="1" xml:space="preserve"> G3/D3</f>
-        <v>0.2699831260546216</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="33">
         <f t="shared" ref="K3" si="2" xml:space="preserve"> H3/D3</f>
-        <v>0.77501406162114872</v>
+        <v>3.4920634920634921E-2</v>
       </c>
       <c r="L3" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="P3" s="40">
         <f t="shared" ref="P3" si="3">L3-Q3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="R3" s="33">
         <f t="shared" ref="R3" si="4" xml:space="preserve"> O3/L3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S3" s="33">
         <f t="shared" ref="S3" si="5" xml:space="preserve"> P3/L3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="U3" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="X3" s="40">
         <f t="shared" ref="X3" si="6">T3-Y3</f>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="Z3" s="33">
         <f t="shared" ref="Z3" si="7" xml:space="preserve"> W3/T3</f>
-        <v>0.9</v>
+        <v>0.62608695652173918</v>
       </c>
       <c r="AA3" s="33">
         <f t="shared" ref="AA3" si="8">X3/T3</f>
-        <v>0.25</v>
+        <v>9.5652173913043481E-2</v>
       </c>
       <c r="AB3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AE3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3" si="9">AB3-AG3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AH3" s="33">
         <f t="shared" ref="AH3" si="10" xml:space="preserve"> AE3/AB3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="33">
         <f t="shared" ref="AI3" si="11">AF3/AB3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.45">
@@ -60541,50 +60715,118 @@
       <c r="C4" s="60">
         <v>43592</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="57">
+        <v>416.5</v>
+      </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="59"/>
+      <c r="F4" s="40">
+        <v>326.5</v>
+      </c>
+      <c r="G4" s="40">
+        <v>286.5</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="I4" s="40">
+        <v>369</v>
+      </c>
+      <c r="J4" s="33">
+        <f t="shared" ref="J4" si="12" xml:space="preserve"> G4/D4</f>
+        <v>0.68787515006002398</v>
+      </c>
+      <c r="K4" s="33">
+        <f t="shared" ref="K4" si="13" xml:space="preserve"> H4/D4</f>
+        <v>0.11404561824729892</v>
+      </c>
+      <c r="L4" s="59">
+        <v>73</v>
+      </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="57"/>
+      <c r="N4" s="40">
+        <v>73</v>
+      </c>
+      <c r="O4" s="40">
+        <v>65</v>
+      </c>
+      <c r="P4" s="40">
+        <f t="shared" ref="P4" si="14">L4-Q4</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>59</v>
+      </c>
+      <c r="R4" s="33">
+        <f t="shared" ref="R4" si="15" xml:space="preserve"> O4/L4</f>
+        <v>0.8904109589041096</v>
+      </c>
+      <c r="S4" s="33">
+        <f t="shared" ref="S4" si="16" xml:space="preserve"> P4/L4</f>
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="T4" s="57">
+        <v>190</v>
+      </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="57"/>
+      <c r="V4" s="40">
+        <v>110</v>
+      </c>
+      <c r="W4" s="40">
+        <v>100</v>
+      </c>
+      <c r="X4" s="40">
+        <f t="shared" ref="X4" si="17">T4-Y4</f>
+        <v>21</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>169</v>
+      </c>
+      <c r="Z4" s="33">
+        <f t="shared" ref="Z4" si="18" xml:space="preserve"> W4/T4</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="AA4" s="33">
+        <f t="shared" ref="AA4" si="19">X4/T4</f>
+        <v>0.11052631578947368</v>
+      </c>
+      <c r="AB4" s="57">
+        <v>51</v>
+      </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
+      <c r="AD4" s="40">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="40">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="40">
+        <f t="shared" ref="AF4" si="20">AB4-AG4</f>
+        <v>11</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" ref="AH4" si="21" xml:space="preserve"> AE4/AB4</f>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="33">
+        <f t="shared" ref="AI4" si="22">AF4/AB4</f>
+        <v>0.21568627450980393</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -60596,50 +60838,134 @@
       <c r="C5" s="60">
         <v>43606</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5" si="23">D5-I5</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="24" xml:space="preserve"> G5/D5</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" ref="K5" si="25" xml:space="preserve"> H5/D5</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" ref="P5" si="26">L5-Q5</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="27" xml:space="preserve"> O5/L5</f>
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5" si="28" xml:space="preserve"> P5/L5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" ref="X5" si="29">T5-Y5</f>
+        <v>50</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="30" xml:space="preserve"> W5/T5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" ref="AA5" si="31">X5/T5</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" ref="AF5" si="32">AB5-AG5</f>
+        <v>50</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="33" xml:space="preserve"> AE5/AB5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5" si="34">AF5/AB5</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -61403,17 +61729,23 @@
         <v>269</v>
       </c>
       <c r="C16" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>135</v>
       </c>
       <c r="D16" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>270</v>
+      </c>
+      <c r="C17" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D17" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{463F966E-204B-4F5E-85E9-359217E49899}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{CAE7D891-A6DA-43F4-B2CB-A3CEAAE94295}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,9 @@
     <sheet name="Issues" sheetId="2" state="hidden" r:id="rId17"/>
     <sheet name="Notes" sheetId="25" state="hidden" r:id="rId18"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AF$40:$AH$46</definedName>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
@@ -40,7 +43,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId20"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1812,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28985507246376813</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71014492753623193</c:v>
+                  <c:v>0.69565217391304346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,6 +2334,9 @@
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3791,6 +3797,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4139,6 +4148,9 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4215,6 +4227,9 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4293,6 +4308,9 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4369,6 +4387,9 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5007,10 +5028,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28985507246376813</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71014492753623193</c:v>
+                  <c:v>0.69565217391304346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5532,6 +5553,9 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7001,6 +7025,9 @@
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7559,6 +7586,9 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7635,6 +7665,9 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7713,6 +7746,9 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7789,6 +7825,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8386,10 +8425,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28985507246376813</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71014492753623193</c:v>
+                  <c:v>0.69565217391304346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8905,6 +8944,9 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9355,6 +9397,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9711,6 +9756,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9787,6 +9835,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9865,6 +9916,9 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9941,6 +9995,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11365,6 +11422,9 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11497,6 +11557,9 @@
                   <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15144,6 +15207,9 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15378,7 +15444,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan2 Progress</c:v>
+              <c:v>Sprint Titan3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15867,16 +15933,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20210,6 +20279,9 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20558,6 +20630,9 @@
                   <c:v>416.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20634,6 +20709,9 @@
                   <c:v>326.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20712,6 +20790,9 @@
                   <c:v>286.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20788,6 +20869,9 @@
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22291,10 +22375,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28985507246376813</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71014492753623193</c:v>
+                  <c:v>0.69565217391304346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41101,7 +41185,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41479,7 +41563,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41742,7 +41826,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42418,7 +42502,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42925,7 +43009,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42941,8 +43025,76 @@
 </c:userShapes>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release"/>
+      <sheetName val="Reuse"/>
+      <sheetName val="Glossary"/>
+      <sheetName val="Doc Gen"/>
+      <sheetName val="_ReleaseData"/>
+      <sheetName val="_CumulativeFlowData "/>
+      <sheetName val="Readiness"/>
+      <sheetName val="_ReadinessData"/>
+      <sheetName val="Team Backlog"/>
+      <sheetName val="_TeamBacklogData"/>
+      <sheetName val="Team Velocity"/>
+      <sheetName val="_TeamVelocityData"/>
+      <sheetName val="Active Sprint"/>
+      <sheetName val="_ActiveSprintData"/>
+      <sheetName val="Bugs"/>
+      <sheetName val="_BugsData"/>
+      <sheetName val="Issues"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="25">
+          <cell r="Q25">
+            <v>420</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Q26">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Q27">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Q28">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43606.320345949076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43607.312716319444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43054,11 +43206,11 @@
         <s v="Glossary"/>
         <s v="Doc Gen"/>
         <s v="Diagram Editor" u="1"/>
+        <s v="DevOps" u="1"/>
+        <s v="Artifact List" u="1"/>
         <s v="Cross Project Move" u="1"/>
-        <s v="Artifact List" u="1"/>
+        <s v="Drag &amp; Drop" u="1"/>
         <s v="Excel Import" u="1"/>
-        <s v="DevOps" u="1"/>
-        <s v="Drag &amp; Drop" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43227,8 +43379,8 @@
         <s v="Titan"/>
         <s v="Saturn"/>
         <s v="Rocket" u="1"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43282,8 +43434,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44752,7 +44904,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44801,7 +44953,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44850,7 +45002,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44899,7 +45051,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44948,7 +45100,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44997,7 +45149,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45046,7 +45198,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48449,8 +48601,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48480,11 +48632,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -48514,8 +48666,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -48549,7 +48701,7 @@
   <pageFields count="3">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
+    <pageField fld="10" item="10" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48567,7 +48719,282 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48617,8 +49044,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -48736,160 +49163,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48920,11 +49195,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -48954,8 +49229,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -49050,113 +49325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49203,8 +49372,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -49279,8 +49448,114 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49330,8 +49605,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -49363,8 +49638,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -49521,7 +49796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49771,7 +50046,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49940,7 +50215,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="39" hier="-1"/>
+    <pageField fld="30" item="40" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50075,7 +50350,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50241,8 +50516,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -50261,8 +50536,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -50360,7 +50635,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50473,8 +50748,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -50504,8 +50779,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -50783,8 +51058,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -50808,33 +51083,421 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -50893,864 +51556,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52093,9 +51900,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52125,11 +51932,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -52159,8 +51966,353 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -52493,7 +52645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52524,11 +52676,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -52558,8 +52710,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -55186,6 +55338,9 @@
       <c r="K8" t="s">
         <v>270</v>
       </c>
+      <c r="L8">
+        <v>80.75</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
@@ -55243,7 +55398,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>46.25</v>
+        <v>127</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55293,7 +55448,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55307,7 +55462,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55347,7 +55502,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55355,7 +55510,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55378,14 +55533,16 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55394,7 +55551,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55403,7 +55560,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan2 Progress</v>
+        <v>Sprint Titan3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56809,7 +56966,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56833,7 +56990,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56857,7 +57014,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56881,7 +57038,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56905,7 +57062,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56929,7 +57086,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56950,7 +57107,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan2</v>
+        <v>Titan3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58745,8 +58902,8 @@
     <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
@@ -58820,7 +58977,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.28985507246376813</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58898,7 +59055,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.71014492753623193</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59068,52 +59225,44 @@
         <v>0.27941176470588236</v>
       </c>
       <c r="M5" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.31</v>
       </c>
       <c r="N5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="O5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="P5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>302.64705882352939</v>
       </c>
       <c r="R5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>264</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>54.044117647058826</v>
       </c>
       <c r="T5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>126.10294117647059</v>
       </c>
       <c r="V5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>39.632352941176471</v>
       </c>
       <c r="X5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="32"/>
       <c r="AB5" s="16" t="s">
@@ -59140,7 +59289,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43606</v>
+        <v>43607</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59165,30 +59314,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$10)</f>
         <v>0.4264705882352941</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>240.88235294117646</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>43.014705882352935</v>
       </c>
-      <c r="T6" s="42"/>
+      <c r="T6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>100.36764705882352</v>
       </c>
-      <c r="V6" s="42"/>
+      <c r="V6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>31.544117647058822</v>
       </c>
-      <c r="X6" s="42"/>
+      <c r="X6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
         <v>184</v>
@@ -59714,7 +59887,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.28985507246376813</v>
+        <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59723,7 +59896,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.71014492753623193</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60839,132 +61012,116 @@
         <v>43606</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>385</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>332</v>
       </c>
       <c r="H5" s="40">
-        <f t="shared" ref="H5" si="23">D5-I5</f>
-        <v>1550.125</v>
+        <f t="shared" ref="H5:H6" si="23">D5-I5</f>
+        <v>121</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>264</v>
       </c>
       <c r="J5" s="33">
-        <f t="shared" ref="J5" si="24" xml:space="preserve"> G5/D5</f>
-        <v>0.2699831260546216</v>
+        <f t="shared" ref="J5:J6" si="24" xml:space="preserve"> G5/D5</f>
+        <v>0.86233766233766229</v>
       </c>
       <c r="K5" s="33">
-        <f t="shared" ref="K5" si="25" xml:space="preserve"> H5/D5</f>
-        <v>0.77501406162114872</v>
+        <f t="shared" ref="K5:K6" si="25" xml:space="preserve"> H5/D5</f>
+        <v>0.31428571428571428</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="P5" s="40">
-        <f t="shared" ref="P5" si="26">L5-Q5</f>
-        <v>50</v>
+        <f t="shared" ref="P5:P6" si="26">L5-Q5</f>
+        <v>26</v>
       </c>
       <c r="Q5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="R5" s="33">
-        <f t="shared" ref="R5" si="27" xml:space="preserve"> O5/L5</f>
-        <v>0.9</v>
+        <f t="shared" ref="R5:R6" si="27" xml:space="preserve"> O5/L5</f>
+        <v>0.84337349397590367</v>
       </c>
       <c r="S5" s="33">
-        <f t="shared" ref="S5" si="28" xml:space="preserve"> P5/L5</f>
-        <v>0.25</v>
+        <f t="shared" ref="S5:S6" si="28" xml:space="preserve"> P5/L5</f>
+        <v>0.31325301204819278</v>
       </c>
       <c r="T5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="W5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="X5" s="40">
-        <f t="shared" ref="X5" si="29">T5-Y5</f>
-        <v>50</v>
+        <f t="shared" ref="X5:X6" si="29">T5-Y5</f>
+        <v>57</v>
       </c>
       <c r="Y5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="Z5" s="33">
-        <f t="shared" ref="Z5" si="30" xml:space="preserve"> W5/T5</f>
-        <v>0.9</v>
+        <f t="shared" ref="Z5:Z6" si="30" xml:space="preserve"> W5/T5</f>
+        <v>0.93902439024390238</v>
       </c>
       <c r="AA5" s="33">
-        <f t="shared" ref="AA5" si="31">X5/T5</f>
-        <v>0.25</v>
+        <f t="shared" ref="AA5:AA6" si="31">X5/T5</f>
+        <v>0.34756097560975607</v>
       </c>
       <c r="AB5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="40">
-        <f t="shared" ref="AF5" si="32">AB5-AG5</f>
-        <v>50</v>
+        <f t="shared" ref="AF5:AF6" si="32">AB5-AG5</f>
+        <v>36</v>
       </c>
       <c r="AG5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5" si="33" xml:space="preserve"> AE5/AB5</f>
+        <f t="shared" ref="AH5:AH6" si="33" xml:space="preserve"> AE5/AB5</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5:AI6" si="34">AF5/AB5</f>
         <v>0.9</v>
-      </c>
-      <c r="AI5" s="33">
-        <f t="shared" ref="AI5" si="34">AF5/AB5</f>
-        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
@@ -60977,50 +61134,134 @@
       <c r="C6" s="60">
         <v>43620</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E6" s="58">
-        <f>_ReleaseData!$Q$25</f>
+        <f>[1]_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="59"/>
+      <c r="F6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="23"/>
+        <v>1550.125</v>
+      </c>
+      <c r="I6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="24"/>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" si="25"/>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L6" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M6" s="58">
-        <f>_ReleaseData!$Q$26</f>
+        <f>[1]_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="57"/>
+      <c r="N6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" si="27"/>
+        <v>0.9</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U6" s="58">
-        <f>_ReleaseData!$Q$27</f>
+        <f>[1]_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="57"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X6" s="40">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" si="30"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC6" s="58">
-        <f>_ReleaseData!$Q$28</f>
+        <f>[1]_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AD6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" si="33"/>
+        <v>0.9</v>
+      </c>
+      <c r="AI6" s="33">
+        <f t="shared" si="34"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -61740,17 +61981,23 @@
         <v>270</v>
       </c>
       <c r="C17" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>57</v>
       </c>
       <c r="D17" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>271</v>
+      </c>
+      <c r="C18" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D18" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{CAE7D891-A6DA-43F4-B2CB-A3CEAAE94295}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{552373EA-9530-4BFC-9DF4-A9EB73D1522C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <sheet name="Issues" sheetId="2" state="hidden" r:id="rId17"/>
     <sheet name="Notes" sheetId="25" state="hidden" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AF$40:$AH$46</definedName>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
@@ -43,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId20"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69565217391304346</c:v>
+                  <c:v>0.56521739130434789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,10 +5025,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69565217391304346</c:v>
+                  <c:v>0.56521739130434789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8425,10 +8422,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69565217391304346</c:v>
+                  <c:v>0.56521739130434789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22375,10 +22372,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69565217391304346</c:v>
+                  <c:v>0.56521739130434789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41185,7 +41182,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>43%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41826,7 +41823,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>43%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42502,7 +42499,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>43%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43009,7 +43006,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30%</a:t>
+            <a:t>43%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43025,76 +43022,8 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release"/>
-      <sheetName val="Reuse"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Doc Gen"/>
-      <sheetName val="_ReleaseData"/>
-      <sheetName val="_CumulativeFlowData "/>
-      <sheetName val="Readiness"/>
-      <sheetName val="_ReadinessData"/>
-      <sheetName val="Team Backlog"/>
-      <sheetName val="_TeamBacklogData"/>
-      <sheetName val="Team Velocity"/>
-      <sheetName val="_TeamVelocityData"/>
-      <sheetName val="Active Sprint"/>
-      <sheetName val="_ActiveSprintData"/>
-      <sheetName val="Bugs"/>
-      <sheetName val="_BugsData"/>
-      <sheetName val="Issues"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="25">
-          <cell r="Q25">
-            <v>420</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43607.312716319444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43620.979848726849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43206,11 +43135,11 @@
         <s v="Glossary"/>
         <s v="Doc Gen"/>
         <s v="Diagram Editor" u="1"/>
+        <s v="Cross Project Move" u="1"/>
+        <s v="Artifact List" u="1"/>
+        <s v="Excel Import" u="1"/>
         <s v="DevOps" u="1"/>
-        <s v="Artifact List" u="1"/>
-        <s v="Cross Project Move" u="1"/>
         <s v="Drag &amp; Drop" u="1"/>
-        <s v="Excel Import" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43379,8 +43308,8 @@
         <s v="Titan"/>
         <s v="Saturn"/>
         <s v="Rocket" u="1"/>
+        <s v="Pegasus" u="1"/>
         <s v="Quasar" u="1"/>
-        <s v="Pegasus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43434,8 +43363,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="SoftTeco" u="1"/>
         <s v="QA" u="1"/>
-        <s v="SoftTeco" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -48601,8 +48530,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48632,11 +48561,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="6"/>
         <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -48646,7 +48575,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48666,4052 +48595,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="46">
-        <item x="0"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="33"/>
-        <item m="1" x="24"/>
-        <item m="1" x="17"/>
-        <item m="1" x="11"/>
-        <item m="1" x="42"/>
-        <item m="1" x="23"/>
-        <item m="1" x="44"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="31"/>
-        <item m="1" x="34"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="40"/>
-        <item m="1" x="43"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="32"/>
-        <item m="1" x="35"/>
-        <item m="1" x="37"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="40" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -53076,6 +48961,4050 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="46">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="33"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="42"/>
+        <item m="1" x="23"/>
+        <item m="1" x="44"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="31"/>
+        <item m="1" x="34"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="32"/>
+        <item m="1" x="35"/>
+        <item m="1" x="37"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="40" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -58902,13 +58831,13 @@
     <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58977,7 +58906,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.30434782608695654</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59055,7 +58984,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.69565217391304346</v>
+        <v>0.56521739130434789</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59289,7 +59218,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43607</v>
+        <v>43620</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59887,7 +59816,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.30434782608695654</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59896,7 +59825,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.69565217391304346</v>
+        <v>0.56521739130434789</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61139,7 +61068,7 @@
         <v>2000.125</v>
       </c>
       <c r="E6" s="58">
-        <f>[1]_ReleaseData!$Q$25</f>
+        <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F6" s="40">
@@ -61171,7 +61100,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="58">
-        <f>[1]_ReleaseData!$Q$26</f>
+        <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N6" s="40">
@@ -61203,7 +61132,7 @@
         <v>200</v>
       </c>
       <c r="U6" s="58">
-        <f>[1]_ReleaseData!$Q$27</f>
+        <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V6" s="40">
@@ -61235,7 +61164,7 @@
         <v>200</v>
       </c>
       <c r="AC6" s="58">
-        <f>[1]_ReleaseData!$Q$28</f>
+        <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD6" s="40">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{552373EA-9530-4BFC-9DF4-A9EB73D1522C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{12FA492B-DF25-4B43-A06C-16F64186EF83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1812,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.44927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56521739130434789</c:v>
+                  <c:v>0.55072463768115942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,6 +2334,9 @@
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3797,6 +3800,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4148,6 +4154,9 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4227,6 +4236,9 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4308,6 +4320,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4387,6 +4402,9 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5025,10 +5043,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.44927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56521739130434789</c:v>
+                  <c:v>0.55072463768115942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5553,6 +5571,9 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7025,6 +7046,9 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7586,6 +7610,9 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7665,6 +7692,9 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7746,6 +7776,9 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7825,6 +7858,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8422,10 +8458,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.44927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56521739130434789</c:v>
+                  <c:v>0.55072463768115942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8944,6 +8980,9 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9397,6 +9436,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9756,6 +9798,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9835,6 +9880,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9916,6 +9964,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9995,6 +10046,9 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11422,6 +11476,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11557,6 +11614,9 @@
                   <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15207,6 +15267,9 @@
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15441,7 +15504,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan3 Progress</c:v>
+              <c:v>Sprint Titan4 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15930,7 +15993,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -20279,6 +20342,9 @@
                   <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20630,6 +20696,9 @@
                   <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20709,6 +20778,9 @@
                   <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20790,6 +20862,9 @@
                   <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20869,6 +20944,9 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22372,10 +22450,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.44927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56521739130434789</c:v>
+                  <c:v>0.55072463768115942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41182,7 +41260,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43%</a:t>
+            <a:t>45%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41560,7 +41638,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41823,7 +41901,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43%</a:t>
+            <a:t>45%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42499,7 +42577,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43%</a:t>
+            <a:t>45%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43006,7 +43084,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43%</a:t>
+            <a:t>45%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43023,7 +43101,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43620.979848726849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43621.311602893518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43135,11 +43213,11 @@
         <s v="Glossary"/>
         <s v="Doc Gen"/>
         <s v="Diagram Editor" u="1"/>
+        <s v="DevOps" u="1"/>
+        <s v="Artifact List" u="1"/>
         <s v="Cross Project Move" u="1"/>
-        <s v="Artifact List" u="1"/>
+        <s v="Drag &amp; Drop" u="1"/>
         <s v="Excel Import" u="1"/>
-        <s v="DevOps" u="1"/>
-        <s v="Drag &amp; Drop" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43308,8 +43386,8 @@
         <s v="Titan"/>
         <s v="Saturn"/>
         <s v="Rocket" u="1"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43363,8 +43441,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44833,7 +44911,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44882,7 +44960,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44931,7 +45009,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44980,7 +45058,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45029,7 +45107,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45078,7 +45156,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45127,7 +45205,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48530,8 +48608,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48561,11 +48639,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -48595,8 +48673,3816 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="46">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="33"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="42"/>
+        <item m="1" x="23"/>
+        <item m="1" x="44"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="31"/>
+        <item m="1" x="34"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="32"/>
+        <item m="1" x="35"/>
+        <item m="1" x="37"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="41" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -48982,9 +52868,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49014,11 +52900,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -49048,2419 +52934,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="46">
-        <item x="0"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="33"/>
-        <item m="1" x="24"/>
-        <item m="1" x="17"/>
-        <item m="1" x="11"/>
-        <item m="1" x="42"/>
-        <item m="1" x="23"/>
-        <item m="1" x="44"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="31"/>
-        <item m="1" x="34"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="40"/>
-        <item m="1" x="43"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="32"/>
-        <item m="1" x="35"/>
-        <item m="1" x="37"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="40" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -51511,9 +52986,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51537,917 +53012,17 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="12">
         <item x="0"/>
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -52477,8 +53052,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="6"/>
         <item m="1" x="5"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -52517,503 +53092,6 @@
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55281,6 +55359,9 @@
       <c r="K9" t="s">
         <v>271</v>
       </c>
+      <c r="L9">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
@@ -55327,7 +55408,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55377,7 +55458,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55391,7 +55472,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55431,7 +55512,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55471,7 +55552,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55480,7 +55561,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55489,7 +55570,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan3 Progress</v>
+        <v>Sprint Titan4 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56895,7 +56976,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56919,7 +57000,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56943,7 +57024,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56967,7 +57048,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56991,7 +57072,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57015,7 +57096,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57036,7 +57117,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan3</v>
+        <v>Titan4</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58828,13 +58909,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
@@ -58906,7 +58987,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.43478260869565216</v>
+        <v>0.44927536231884058</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58984,7 +59065,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.56521739130434789</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59218,7 +59299,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43620</v>
+        <v>43621</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59244,52 +59325,44 @@
         <v>0.4264705882352941</v>
       </c>
       <c r="M6" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.4</v>
       </c>
       <c r="N6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="P6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>240.88235294117646</v>
       </c>
       <c r="R6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>43.014705882352935</v>
       </c>
       <c r="T6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>100.36764705882352</v>
       </c>
       <c r="V6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>31.544117647058822</v>
       </c>
       <c r="X6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
@@ -59333,30 +59406,54 @@
         <f>SUM($J$4:J7)/SUM($J$4:$J$10)</f>
         <v>0.57352941176470584</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="M7" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>179.11764705882354</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>31.985294117647062</v>
       </c>
-      <c r="T7" s="42"/>
+      <c r="T7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>74.632352941176478</v>
       </c>
-      <c r="V7" s="42"/>
+      <c r="V7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>23.455882352941178</v>
       </c>
-      <c r="X7" s="42"/>
+      <c r="X7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
         <v>254</v>
@@ -59816,7 +59913,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.43478260869565216</v>
+        <v>0.44927536231884058</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59825,7 +59922,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.56521739130434789</v>
+        <v>0.55072463768115942</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61064,132 +61161,116 @@
         <v>43620</v>
       </c>
       <c r="D6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>463</v>
       </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="G6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>406</v>
       </c>
       <c r="H6" s="40">
         <f t="shared" si="23"/>
-        <v>1550.125</v>
+        <v>186</v>
       </c>
       <c r="I6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" si="24"/>
-        <v>0.2699831260546216</v>
+        <v>0.87688984881209509</v>
       </c>
       <c r="K6" s="33">
         <f t="shared" si="25"/>
-        <v>0.77501406162114872</v>
+        <v>0.40172786177105829</v>
       </c>
       <c r="L6" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="O6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="P6" s="40">
         <f t="shared" si="26"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="27"/>
-        <v>0.9</v>
+        <v>0.86170212765957444</v>
       </c>
       <c r="S6" s="33">
         <f t="shared" si="28"/>
-        <v>0.25</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="T6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="W6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="X6" s="40">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="33">
         <f t="shared" si="30"/>
-        <v>0.9</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="AA6" s="33">
         <f t="shared" si="31"/>
-        <v>0.25</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="AB6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AE6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" si="32"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="33">
         <f t="shared" si="33"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="33">
         <f t="shared" si="34"/>
-        <v>0.25</v>
+        <v>0.97560975609756095</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
@@ -61202,50 +61283,134 @@
       <c r="C7" s="60">
         <v>43634</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="59"/>
+      <c r="F7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="35">D7-I7</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" ref="J7" si="36" xml:space="preserve"> G7/D7</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" ref="K7" si="37" xml:space="preserve"> H7/D7</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L7" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="57"/>
+      <c r="N7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P7" s="40">
+        <f t="shared" ref="P7" si="38">L7-Q7</f>
+        <v>50</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" ref="R7" si="39" xml:space="preserve"> O7/L7</f>
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" ref="S7" si="40" xml:space="preserve"> P7/L7</f>
+        <v>0.25</v>
+      </c>
+      <c r="T7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="57"/>
+      <c r="V7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X7" s="40">
+        <f t="shared" ref="X7" si="41">T7-Y7</f>
+        <v>50</v>
+      </c>
+      <c r="Y7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" ref="Z7" si="42" xml:space="preserve"> W7/T7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" ref="AA7" si="43">X7/T7</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AD7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF7" s="40">
+        <f t="shared" ref="AF7" si="44">AB7-AG7</f>
+        <v>50</v>
+      </c>
+      <c r="AG7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" ref="AH7" si="45" xml:space="preserve"> AE7/AB7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" ref="AI7" si="46">AF7/AB7</f>
+        <v>0.25</v>
+      </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
       </c>
@@ -61921,17 +62086,23 @@
         <v>271</v>
       </c>
       <c r="C18" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>60</v>
       </c>
       <c r="D18" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>272</v>
+      </c>
+      <c r="C19" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D19" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{12FA492B-DF25-4B43-A06C-16F64186EF83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C3C7F8DA-ED0A-41F0-A099-3771BB6BDAFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="58" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1812,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.44927536231884058</c:v>
+                  <c:v>0.62318840579710144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55072463768115942</c:v>
+                  <c:v>0.37681159420289856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,6 +2337,9 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3803,6 +3806,9 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4157,6 +4163,9 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4239,6 +4248,9 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4323,6 +4335,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4405,6 +4420,9 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5043,10 +5061,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.44927536231884058</c:v>
+                  <c:v>0.62318840579710144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55072463768115942</c:v>
+                  <c:v>0.37681159420289856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5574,6 +5592,9 @@
                   <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7049,6 +7070,9 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7613,6 +7637,9 @@
                   <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7695,6 +7722,9 @@
                   <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7779,6 +7809,9 @@
                   <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7861,6 +7894,9 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8458,10 +8494,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.44927536231884058</c:v>
+                  <c:v>0.62318840579710144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55072463768115942</c:v>
+                  <c:v>0.37681159420289856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,6 +9019,9 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9439,6 +9478,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9801,6 +9843,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9883,6 +9928,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9967,6 +10015,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10049,6 +10100,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11479,6 +11533,9 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11617,6 +11674,9 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15270,6 +15330,9 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15504,7 +15567,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan4 Progress</c:v>
+              <c:v>Sprint Titan5 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16005,7 +16068,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20345,6 +20408,9 @@
                   <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20699,6 +20765,9 @@
                   <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20781,6 +20850,9 @@
                   <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20865,6 +20937,9 @@
                   <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20947,6 +21022,9 @@
                   <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22450,10 +22528,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.44927536231884058</c:v>
+                  <c:v>0.62318840579710144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55072463768115942</c:v>
+                  <c:v>0.37681159420289856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41260,7 +41338,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>45%</a:t>
+            <a:t>62%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41638,7 +41716,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>16</a:t>
+            <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41901,7 +41979,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>45%</a:t>
+            <a:t>62%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42577,7 +42655,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>45%</a:t>
+            <a:t>62%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43084,7 +43162,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>45%</a:t>
+            <a:t>62%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43101,7 +43179,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43621.311602893518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43637.651627314815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44911,7 +44989,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44960,7 +45038,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45009,7 +45087,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45058,7 +45136,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45107,7 +45185,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45156,7 +45234,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45205,7 +45283,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48608,8 +48686,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48653,7 +48731,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48688,258 +48766,31 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="10" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48953,8 +48804,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48978,12 +48829,27 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49018,44 +48884,19 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -49063,158 +48904,11 @@
   <pageFields count="3">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49228,8 +48922,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49253,12 +48947,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="12">
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="7"/>
         <item m="1" x="5"/>
+        <item x="1"/>
         <item m="1" x="8"/>
         <item m="1" x="10"/>
         <item m="1" x="6"/>
@@ -49274,7 +48968,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49288,8 +48981,9 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -49303,7 +48997,7 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49314,58 +49008,24 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="3">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -49380,7 +49040,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49541,7 +49201,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49665,7 +49325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49771,7 +49431,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50012,7 +49672,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50262,7 +49922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50431,7 +50091,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="41" hier="-1"/>
+    <pageField fld="30" item="42" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50566,7 +50226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50851,7 +50511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51274,236 +50934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51672,8 +51103,283 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52071,8 +51777,160 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52416,7 +52274,463 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52856,242 +53170,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55458,7 +55536,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55472,7 +55550,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55544,7 +55622,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55552,7 +55630,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55561,7 +55639,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55570,7 +55648,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan4 Progress</v>
+        <v>Sprint Titan5 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56976,7 +57054,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57000,7 +57078,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57024,7 +57102,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57048,7 +57126,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57072,7 +57150,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57096,7 +57174,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57117,7 +57195,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan4</v>
+        <v>Titan5</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58909,16 +58987,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58987,7 +59065,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.44927536231884058</v>
+        <v>0.62318840579710144</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59065,7 +59143,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.55072463768115942</v>
+        <v>0.37681159420289856</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59299,7 +59377,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43621</v>
+        <v>43637</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59407,52 +59485,44 @@
         <v>0.57352941176470584</v>
       </c>
       <c r="M7" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.64</v>
       </c>
       <c r="N7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="O7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="P7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>179.11764705882354</v>
       </c>
       <c r="R7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>153</v>
       </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>31.985294117647062</v>
       </c>
       <c r="T7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>74.632352941176478</v>
       </c>
       <c r="V7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>23.455882352941178</v>
       </c>
       <c r="X7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
@@ -59491,30 +59561,54 @@
         <f>SUM($J$4:J8)/SUM($J$4:$J$10)</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="M8" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>123.52941176470587</v>
       </c>
-      <c r="R8" s="42"/>
+      <c r="R8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>22.058823529411761</v>
       </c>
-      <c r="T8" s="42"/>
+      <c r="T8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>51.470588235294109</v>
       </c>
-      <c r="V8" s="42"/>
+      <c r="V8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>16.17647058823529</v>
       </c>
-      <c r="X8" s="42"/>
+      <c r="X8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
         <v>259</v>
@@ -59913,7 +60007,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.44927536231884058</v>
+        <v>0.62318840579710144</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59922,7 +60016,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.55072463768115942</v>
+        <v>0.37681159420289856</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61284,132 +61378,116 @@
         <v>43634</v>
       </c>
       <c r="D7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>422</v>
       </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="G7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7" si="35">D7-I7</f>
-        <v>1550.125</v>
+        <v>269</v>
       </c>
       <c r="I7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>153</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" ref="J7" si="36" xml:space="preserve"> G7/D7</f>
-        <v>0.2699831260546216</v>
+        <v>0.92417061611374407</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" ref="K7" si="37" xml:space="preserve"> H7/D7</f>
-        <v>0.77501406162114872</v>
+        <v>0.63744075829383884</v>
       </c>
       <c r="L7" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="P7" s="40">
         <f t="shared" ref="P7" si="38">L7-Q7</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="R7" s="33">
         <f t="shared" ref="R7" si="39" xml:space="preserve"> O7/L7</f>
-        <v>0.9</v>
+        <v>0.84158415841584155</v>
       </c>
       <c r="S7" s="33">
         <f t="shared" ref="S7" si="40" xml:space="preserve"> P7/L7</f>
-        <v>0.25</v>
+        <v>0.71287128712871284</v>
       </c>
       <c r="T7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="W7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="X7" s="40">
         <f t="shared" ref="X7" si="41">T7-Y7</f>
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="33">
         <f t="shared" ref="Z7" si="42" xml:space="preserve"> W7/T7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="33">
         <f t="shared" ref="AA7" si="43">X7/T7</f>
-        <v>0.25</v>
+        <v>0.77456647398843925</v>
       </c>
       <c r="AB7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AE7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ref="AF7" si="44">AB7-AG7</f>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="33">
         <f t="shared" ref="AH7" si="45" xml:space="preserve"> AE7/AB7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="33">
         <f t="shared" ref="AI7" si="46">AF7/AB7</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
@@ -61428,50 +61506,134 @@
       <c r="C8" s="60">
         <v>43648</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="59"/>
+      <c r="F8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" ref="H8" si="47">D8-I8</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" ref="J8" si="48" xml:space="preserve"> G8/D8</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" ref="K8" si="49" xml:space="preserve"> H8/D8</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L8" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="57"/>
+      <c r="N8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P8" s="40">
+        <f t="shared" ref="P8" si="50">L8-Q8</f>
+        <v>50</v>
+      </c>
+      <c r="Q8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R8" s="33">
+        <f t="shared" ref="R8" si="51" xml:space="preserve"> O8/L8</f>
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="33">
+        <f t="shared" ref="S8" si="52" xml:space="preserve"> P8/L8</f>
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="57"/>
+      <c r="V8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X8" s="40">
+        <f t="shared" ref="X8" si="53">T8-Y8</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" ref="Z8" si="54" xml:space="preserve"> W8/T8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA8" s="33">
+        <f t="shared" ref="AA8" si="55">X8/T8</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
+      <c r="AD8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" ref="AF8" si="56">AB8-AG8</f>
+        <v>50</v>
+      </c>
+      <c r="AG8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" ref="AH8" si="57" xml:space="preserve"> AE8/AB8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI8" s="33">
+        <f t="shared" ref="AI8" si="58">AF8/AB8</f>
+        <v>0.25</v>
+      </c>
       <c r="AL8" s="16" t="s">
         <v>248</v>
       </c>
@@ -62097,17 +62259,23 @@
         <v>272</v>
       </c>
       <c r="C19" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>35</v>
       </c>
       <c r="D19" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>273</v>
+      </c>
+      <c r="C20" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D20" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C3C7F8DA-ED0A-41F0-A099-3771BB6BDAFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{1B9A31BD-39BE-4A37-BFB6-805DD7E12981}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId19"/>
+    <pivotCache cacheId="94" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1812,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.62318840579710144</c:v>
+                  <c:v>0.85507246376811596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37681159420289856</c:v>
+                  <c:v>0.14492753623188404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,6 +2340,9 @@
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3809,6 +3812,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4166,6 +4172,9 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4251,6 +4260,9 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4338,6 +4350,9 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4423,6 +4438,9 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5061,10 +5079,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.62318840579710144</c:v>
+                  <c:v>0.85507246376811596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37681159420289856</c:v>
+                  <c:v>0.14492753623188404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5595,6 +5613,9 @@
                   <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7073,6 +7094,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7640,6 +7664,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7725,6 +7752,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7812,6 +7842,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7897,6 +7930,9 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8494,10 +8530,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.62318840579710144</c:v>
+                  <c:v>0.85507246376811596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37681159420289856</c:v>
+                  <c:v>0.14492753623188404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9022,6 +9058,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9481,6 +9520,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9846,6 +9888,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9931,6 +9976,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10018,6 +10066,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10103,6 +10154,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11536,6 +11590,9 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11677,6 +11734,9 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15333,6 +15393,9 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15567,7 +15630,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan5 Progress</c:v>
+              <c:v>Sprint Titan6 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16068,7 +16131,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20411,6 +20474,9 @@
                   <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20768,6 +20834,9 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>439.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20853,6 +20922,9 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>438.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20940,6 +21012,9 @@
                   <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>424.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21025,6 +21100,9 @@
                   <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>326.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22528,10 +22606,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.62318840579710144</c:v>
+                  <c:v>0.85507246376811596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37681159420289856</c:v>
+                  <c:v>0.14492753623188404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41338,7 +41416,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41716,7 +41794,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41979,7 +42057,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42655,7 +42733,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43162,7 +43240,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62%</a:t>
+            <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43179,7 +43257,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43637.651627314815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43662.348042361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44989,7 +45067,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45038,7 +45116,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45087,7 +45165,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45136,7 +45214,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45185,7 +45263,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45234,7 +45312,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45283,7 +45361,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48686,7 +48764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48804,125 +48882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49039,8 +48999,352 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49201,7 +49505,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49324,114 +49734,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49672,7 +49976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49922,7 +50226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50091,7 +50395,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="42" hier="-1"/>
+    <pageField fld="30" item="43" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50226,7 +50530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50511,7 +50815,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50934,7 +51238,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51104,1177 +51408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52618,8 +51752,283 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52729,8 +52138,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53170,6 +52579,675 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55451,6 +55529,9 @@
       <c r="K10" t="s">
         <v>272</v>
       </c>
+      <c r="L10">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
@@ -55461,6 +55542,9 @@
       </c>
       <c r="K11" t="s">
         <v>273</v>
+      </c>
+      <c r="L11">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
@@ -55486,7 +55570,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55536,7 +55620,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55550,7 +55634,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55622,7 +55706,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55630,7 +55714,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55639,7 +55723,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55648,7 +55732,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan5 Progress</v>
+        <v>Sprint Titan6 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57054,7 +57138,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57078,7 +57162,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57102,7 +57186,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57126,7 +57210,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57150,7 +57234,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57174,7 +57258,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57195,7 +57279,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan5</v>
+        <v>Titan6</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58991,7 +59075,7 @@
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
@@ -59065,7 +59149,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.62318840579710144</v>
+        <v>0.85507246376811596</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59143,7 +59227,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.37681159420289856</v>
+        <v>0.14492753623188404</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59377,7 +59461,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43637</v>
+        <v>43662</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59562,52 +59646,44 @@
         <v>0.70588235294117652</v>
       </c>
       <c r="M8" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.74</v>
       </c>
       <c r="N8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="O8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="P8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>123.52941176470587</v>
       </c>
       <c r="R8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>113</v>
       </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>22.058823529411761</v>
       </c>
       <c r="T8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>51.470588235294109</v>
       </c>
       <c r="V8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>16.17647058823529</v>
       </c>
       <c r="X8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
@@ -59650,30 +59726,54 @@
         <f>SUM($J$4:J9)/SUM($J$4:$J$10)</f>
         <v>0.8529411764705882</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
+      <c r="M9" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>61.764705882352956</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
         <v>11.029411764705884</v>
       </c>
-      <c r="T9" s="42"/>
+      <c r="T9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
         <v>25.735294117647065</v>
       </c>
-      <c r="V9" s="42"/>
+      <c r="V9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>8.0882352941176485</v>
       </c>
-      <c r="X9" s="42"/>
+      <c r="X9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
         <v>258</v>
@@ -60007,7 +60107,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.62318840579710144</v>
+        <v>0.85507246376811596</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -60016,7 +60116,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.37681159420289856</v>
+        <v>0.14492753623188404</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61475,7 +61575,7 @@
         <v>41</v>
       </c>
       <c r="AF7" s="40">
-        <f t="shared" ref="AF7" si="44">AB7-AG7</f>
+        <f t="shared" ref="AF7:AF8" si="44">AB7-AG7</f>
         <v>41</v>
       </c>
       <c r="AG7" s="40">
@@ -61507,132 +61607,116 @@
         <v>43648</v>
       </c>
       <c r="D8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>439.5</v>
       </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>438.5</v>
       </c>
       <c r="G8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>424.5</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" ref="H8" si="47">D8-I8</f>
-        <v>1550.125</v>
+        <v>326.5</v>
       </c>
       <c r="I8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>113</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" ref="J8" si="48" xml:space="preserve"> G8/D8</f>
-        <v>0.2699831260546216</v>
+        <v>0.96587030716723554</v>
       </c>
       <c r="K8" s="33">
         <f t="shared" ref="K8" si="49" xml:space="preserve"> H8/D8</f>
-        <v>0.77501406162114872</v>
+        <v>0.74288964732650742</v>
       </c>
       <c r="L8" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="O8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="P8" s="40">
         <f t="shared" ref="P8" si="50">L8-Q8</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="R8" s="33">
         <f t="shared" ref="R8" si="51" xml:space="preserve"> O8/L8</f>
-        <v>0.9</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="S8" s="33">
         <f t="shared" ref="S8" si="52" xml:space="preserve"> P8/L8</f>
-        <v>0.25</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="T8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>192.5</v>
       </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>192.5</v>
       </c>
       <c r="W8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>192.5</v>
       </c>
       <c r="X8" s="40">
         <f t="shared" ref="X8" si="53">T8-Y8</f>
-        <v>50</v>
+        <v>163.5</v>
       </c>
       <c r="Y8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="Z8" s="33">
         <f t="shared" ref="Z8" si="54" xml:space="preserve"> W8/T8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="33">
         <f t="shared" ref="AA8" si="55">X8/T8</f>
-        <v>0.25</v>
+        <v>0.8493506493506493</v>
       </c>
       <c r="AB8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>41</v>
+      </c>
+      <c r="AE8" s="40">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" si="44"/>
+        <v>41</v>
+      </c>
+      <c r="AG8" s="40">
         <v>0</v>
       </c>
-      <c r="AE8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
-      </c>
-      <c r="AF8" s="40">
-        <f t="shared" ref="AF8" si="56">AB8-AG8</f>
-        <v>50</v>
-      </c>
-      <c r="AG8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
-      </c>
       <c r="AH8" s="33">
-        <f t="shared" ref="AH8" si="57" xml:space="preserve"> AE8/AB8</f>
-        <v>0.9</v>
+        <f t="shared" ref="AH8" si="56" xml:space="preserve"> AE8/AB8</f>
+        <v>1</v>
       </c>
       <c r="AI8" s="33">
-        <f t="shared" ref="AI8" si="58">AF8/AB8</f>
-        <v>0.25</v>
+        <f t="shared" ref="AI8" si="57">AF8/AB8</f>
+        <v>1</v>
       </c>
       <c r="AL8" s="16" t="s">
         <v>248</v>
@@ -61651,50 +61735,134 @@
       <c r="C9" s="60">
         <v>43662</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="59"/>
+      <c r="F9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="58">D9-I9</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" ref="J9" si="59" xml:space="preserve"> G9/D9</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" ref="K9" si="60" xml:space="preserve"> H9/D9</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L9" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="57"/>
+      <c r="N9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" ref="P9" si="61">L9-Q9</f>
+        <v>50</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R9" s="33">
+        <f t="shared" ref="R9" si="62" xml:space="preserve"> O9/L9</f>
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="33">
+        <f t="shared" ref="S9" si="63" xml:space="preserve"> P9/L9</f>
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U9" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="57"/>
+      <c r="V9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X9" s="40">
+        <f t="shared" ref="X9" si="64">T9-Y9</f>
+        <v>50</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" ref="Z9" si="65" xml:space="preserve"> W9/T9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="33">
+        <f t="shared" ref="AA9" si="66">X9/T9</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC9" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="AD9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF9" s="40">
+        <f t="shared" ref="AF9" si="67">AB9-AG9</f>
+        <v>50</v>
+      </c>
+      <c r="AG9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9" si="68" xml:space="preserve"> AE9/AB9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" ref="AI9" si="69">AF9/AB9</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -62270,17 +62438,23 @@
         <v>273</v>
       </c>
       <c r="C20" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>18</v>
       </c>
       <c r="D20" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>274</v>
+      </c>
+      <c r="C21" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D21" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Titan-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Titan-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{1B9A31BD-39BE-4A37-BFB6-805DD7E12981}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{35588F96-2470-490B-87B6-C92A046B6243}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,14 +40,14 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="94" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="280">
   <si>
     <t>Status</t>
   </si>
@@ -1812,10 +1812,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.85507246376811596</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14492753623188404</c:v>
+                  <c:v>0.13043478260869568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,6 +2343,9 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3817,6 +3820,9 @@
                 <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4175,6 +4181,9 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4263,6 +4272,9 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4353,6 +4365,9 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4441,6 +4456,9 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5079,10 +5097,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.85507246376811596</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14492753623188404</c:v>
+                  <c:v>0.13043478260869568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,6 +5634,9 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7097,6 +7118,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7667,6 +7691,9 @@
                   <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7755,6 +7782,9 @@
                   <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7845,6 +7875,9 @@
                   <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7933,6 +7966,9 @@
                   <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8530,10 +8566,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.85507246376811596</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14492753623188404</c:v>
+                  <c:v>0.13043478260869568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9061,6 +9097,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9523,6 +9562,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9891,6 +9933,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9979,6 +10024,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10069,6 +10117,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10157,6 +10208,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11593,6 +11647,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11737,6 +11794,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15396,6 +15456,9 @@
                   <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15630,7 +15693,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Titan6 Progress</c:v>
+              <c:v>Sprint Titan7 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15985,7 +16048,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16003,9 +16066,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16081,7 +16142,7 @@
             <c:strRef>
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Closed</c:v>
                 </c:pt>
@@ -16101,6 +16162,9 @@
                   <c:v>Cancelled</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Unkown</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -16111,7 +16175,7 @@
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -16130,7 +16194,7 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -20477,6 +20541,9 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20837,6 +20904,9 @@
                   <c:v>439.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>446.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20925,6 +20995,9 @@
                   <c:v>438.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>446.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21015,6 +21088,9 @@
                   <c:v>424.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>439.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21103,6 +21179,9 @@
                   <c:v>326.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>374.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22606,10 +22685,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.85507246376811596</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14492753623188404</c:v>
+                  <c:v>0.13043478260869568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41416,7 +41495,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>87%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42057,7 +42136,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>87%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42733,7 +42812,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>87%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43240,7 +43319,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>86%</a:t>
+            <a:t>87%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43257,7 +43336,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43662.348042361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43663.311183796293" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43369,11 +43448,11 @@
         <s v="Glossary"/>
         <s v="Doc Gen"/>
         <s v="Diagram Editor" u="1"/>
+        <s v="Cross Project Move" u="1"/>
+        <s v="Artifact List" u="1"/>
+        <s v="Excel Import" u="1"/>
         <s v="DevOps" u="1"/>
-        <s v="Artifact List" u="1"/>
-        <s v="Cross Project Move" u="1"/>
         <s v="Drag &amp; Drop" u="1"/>
-        <s v="Excel Import" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43542,8 +43621,8 @@
         <s v="Titan"/>
         <s v="Saturn"/>
         <s v="Rocket" u="1"/>
+        <s v="Pegasus" u="1"/>
         <s v="Quasar" u="1"/>
-        <s v="Pegasus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43597,8 +43676,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="SoftTeco" u="1"/>
         <s v="QA" u="1"/>
-        <s v="SoftTeco" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -45067,7 +45146,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45116,7 +45195,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45165,7 +45244,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45214,7 +45293,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45263,7 +45342,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45312,7 +45391,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45361,7 +45440,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48764,8 +48843,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48789,17 +48868,17 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="12">
         <item x="0"/>
+        <item x="1"/>
         <item m="1" x="7"/>
         <item m="1" x="5"/>
-        <item x="1"/>
+        <item m="1" x="6"/>
         <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -48809,6 +48888,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48823,14 +48903,13 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -48839,7 +48918,7 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48850,24 +48929,58 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="3">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="10" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -48882,3264 +48995,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="46">
-        <item x="0"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="33"/>
-        <item m="1" x="24"/>
-        <item m="1" x="17"/>
-        <item m="1" x="11"/>
-        <item m="1" x="42"/>
-        <item m="1" x="23"/>
-        <item m="1" x="44"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="31"/>
-        <item m="1" x="34"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="40"/>
-        <item m="1" x="43"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="29"/>
-        <item m="1" x="32"/>
-        <item m="1" x="35"/>
-        <item m="1" x="37"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="43" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="50">
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52170,11 +49026,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="6"/>
         <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -52204,8 +49060,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -52591,8 +49447,2704 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="46">
+        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="33"/>
+        <item m="1" x="24"/>
+        <item m="1" x="17"/>
+        <item m="1" x="11"/>
+        <item m="1" x="42"/>
+        <item m="1" x="23"/>
+        <item m="1" x="44"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="31"/>
+        <item m="1" x="34"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="40"/>
+        <item m="1" x="43"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="25"/>
+        <item m="1" x="27"/>
+        <item m="1" x="29"/>
+        <item m="1" x="32"/>
+        <item m="1" x="35"/>
+        <item m="1" x="37"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="44" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="50">
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52623,11 +52175,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="6"/>
         <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -52657,8 +52209,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -52990,9 +52542,464 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="6" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="94" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53022,11 +53029,11 @@
         <item m="1" x="7"/>
         <item m="1" x="5"/>
         <item x="1"/>
+        <item m="1" x="6"/>
         <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
         <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
         <item x="3"/>
         <item x="4"/>
         <item t="default"/>
@@ -53036,7 +53043,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53056,8 +53063,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item m="1" x="4"/>
         <item x="3"/>
@@ -53071,127 +53078,9 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="6" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -53205,49 +53094,242 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="4">
     <pageField fld="32" item="6" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55557,6 +55639,9 @@
       <c r="K12" t="s">
         <v>274</v>
       </c>
+      <c r="L12">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K13" t="s">
@@ -55570,7 +55655,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>356</v>
+        <v>410.5</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55620,7 +55705,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55634,7 +55719,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55703,17 +55788,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="20">
         <v>16</v>
       </c>
     </row>
@@ -55732,7 +55823,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Titan6 Progress</v>
+        <v>Sprint Titan7 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57138,7 +57229,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57162,7 +57253,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57186,7 +57277,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57210,7 +57301,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57234,7 +57325,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57258,7 +57349,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57279,7 +57370,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Titan6</v>
+        <v>Titan7</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59075,9 +59166,9 @@
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -59149,7 +59240,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.85507246376811596</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59227,7 +59318,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.14492753623188404</v>
+        <v>0.13043478260869568</v>
       </c>
       <c r="D3" s="26">
         <v>43579</v>
@@ -59461,7 +59552,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>271</v>
@@ -59727,28 +59818,23 @@
         <v>0.8529411764705882</v>
       </c>
       <c r="M9" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.84</v>
       </c>
       <c r="N9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>0.25</v>
+        <v>0.94</v>
       </c>
       <c r="P9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>61.764705882352956</v>
       </c>
       <c r="R9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
@@ -59763,16 +59849,14 @@
         <v>25.735294117647065</v>
       </c>
       <c r="V9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>8.0882352941176485</v>
       </c>
       <c r="X9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
@@ -59816,30 +59900,53 @@
         <f>SUM($J$4:J10)/SUM($J$4:$J$10)</f>
         <v>1</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+      <c r="M10" s="75">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q10" s="71">
         <f t="shared" ref="Q10" si="13">$Q$25*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S10" s="71">
         <f t="shared" ref="S10" si="14">$Q$26*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="71"/>
+      <c r="T10" s="71">
+        <v>0</v>
+      </c>
       <c r="U10" s="71">
         <f t="shared" ref="U10" si="15">$Q$27*(100%-L10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="71"/>
+      <c r="V10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Glossary")</f>
+        <v>150</v>
+      </c>
       <c r="W10" s="71">
         <f t="shared" ref="W10" si="16">$Q$28*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="71"/>
+      <c r="X10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Doc Gen")</f>
+        <v>150</v>
+      </c>
       <c r="Z10" s="32"/>
       <c r="AB10" s="17" t="s">
         <v>50</v>
@@ -60107,7 +60214,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.85507246376811596</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -60116,7 +60223,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.14492753623188404</v>
+        <v>0.13043478260869568</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61736,132 +61843,116 @@
         <v>43662</v>
       </c>
       <c r="D9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>446.5</v>
       </c>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
       <c r="F9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>446.5</v>
       </c>
       <c r="G9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>439.5</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" ref="H9" si="58">D9-I9</f>
-        <v>1550.125</v>
+        <v>374.5</v>
       </c>
       <c r="I9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" ref="J9" si="59" xml:space="preserve"> G9/D9</f>
-        <v>0.2699831260546216</v>
+        <v>0.9843225083986562</v>
       </c>
       <c r="K9" s="33">
         <f t="shared" ref="K9" si="60" xml:space="preserve"> H9/D9</f>
-        <v>0.77501406162114872</v>
+        <v>0.83874580067189253</v>
       </c>
       <c r="L9" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>91.5</v>
       </c>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
       <c r="N9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="O9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>91.5</v>
       </c>
       <c r="P9" s="40">
         <f t="shared" ref="P9" si="61">L9-Q9</f>
-        <v>50</v>
+        <v>91.5</v>
       </c>
       <c r="Q9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R9" s="33">
         <f t="shared" ref="R9" si="62" xml:space="preserve"> O9/L9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S9" s="33">
         <f t="shared" ref="S9" si="63" xml:space="preserve"> P9/L9</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>200</v>
+        <v>190.5</v>
       </c>
       <c r="U9" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
       <c r="V9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>0</v>
+        <v>190.5</v>
       </c>
       <c r="W9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>180</v>
+        <v>190.5</v>
       </c>
       <c r="X9" s="40">
         <f t="shared" ref="X9" si="64">T9-Y9</f>
-        <v>50</v>
+        <v>179.5</v>
       </c>
       <c r="Y9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Z9" s="33">
         <f t="shared" ref="Z9" si="65" xml:space="preserve"> W9/T9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="33">
         <f t="shared" ref="AA9" si="66">X9/T9</f>
-        <v>0.25</v>
+        <v>0.94225721784776906</v>
       </c>
       <c r="AB9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC9" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
       <c r="AD9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AE9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ref="AF9" si="67">AB9-AG9</f>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="33">
         <f t="shared" ref="AH9" si="68" xml:space="preserve"> AE9/AB9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="33">
         <f t="shared" ref="AI9" si="69">AF9/AB9</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -61874,50 +61965,134 @@
       <c r="C10" s="60">
         <v>43676</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E10" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>420</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="59"/>
+      <c r="F10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" ref="H10" si="70">D10-I10</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" ref="J10" si="71" xml:space="preserve"> G10/D10</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" ref="K10" si="72" xml:space="preserve"> H10/D10</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L10" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M10" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>75</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="57"/>
+      <c r="N10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" ref="P10" si="73">L10-Q10</f>
+        <v>50</v>
+      </c>
+      <c r="Q10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R10" s="33">
+        <f t="shared" ref="R10" si="74" xml:space="preserve"> O10/L10</f>
+        <v>0.9</v>
+      </c>
+      <c r="S10" s="33">
+        <f t="shared" ref="S10" si="75" xml:space="preserve"> P10/L10</f>
+        <v>0.25</v>
+      </c>
+      <c r="T10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>200</v>
+      </c>
       <c r="U10" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>175</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="57"/>
+      <c r="V10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>180</v>
+      </c>
+      <c r="X10" s="40">
+        <f t="shared" ref="X10" si="76">T10-Y10</f>
+        <v>50</v>
+      </c>
+      <c r="Y10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Glossary")</f>
+        <v>150</v>
+      </c>
+      <c r="Z10" s="33">
+        <f t="shared" ref="Z10" si="77" xml:space="preserve"> W10/T10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA10" s="33">
+        <f t="shared" ref="AA10" si="78">X10/T10</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>200</v>
+      </c>
       <c r="AC10" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>55</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
+      <c r="AD10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>180</v>
+      </c>
+      <c r="AF10" s="40">
+        <f t="shared" ref="AF10" si="79">AB10-AG10</f>
+        <v>50</v>
+      </c>
+      <c r="AG10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Doc Gen")</f>
+        <v>150</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" ref="AH10" si="80" xml:space="preserve"> AE10/AB10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI10" s="33">
+        <f t="shared" ref="AI10" si="81">AF10/AB10</f>
+        <v>0.25</v>
+      </c>
       <c r="AM10" s="16" t="s">
         <v>162</v>
       </c>
@@ -62449,20 +62624,24 @@
         <v>274</v>
       </c>
       <c r="C21" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>199</v>
       </c>
       <c r="D21" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D22" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
